--- a/src/user.xlsx
+++ b/src/user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +38,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rmd011417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psj1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmd1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂电花江校区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -421,16 +433,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
         <v>15037954377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>11111111111</v>
       </c>
     </row>
   </sheetData>
